--- a/dailyreport/static/dailyreport/dailyreport_full_template.xlsx
+++ b/dailyreport/static/dailyreport/dailyreport_full_template.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,99 +444,156 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>__template_version__</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2025.01</t>
+          <t>driver_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>vehicle_number</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ride_time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ride_from</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ride_to</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>meter_fee</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>payment_method</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>is_charter</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>charter_amount</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>charter_payment_method</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>is_pending</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>riding_etc</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>riding_etc_charge</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>empty_etc</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>empty_etc_charge</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>driver_code</t>
+          <t>D001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>vehicle_number</t>
+          <t>6598</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ride_time</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ride_from</t>
+          <t>京都駅</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ride_to</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>meter_fee</t>
-        </is>
+          <t>五条</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1500</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>payment_method</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>is_charter</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>charter_amount</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>charter_payment_method</t>
-        </is>
-      </c>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>note</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>is_pending</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>riding_etc</t>
-        </is>
+          <t>通常現金のお客様</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>riding_etc_charge</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>empty_etc</t>
-        </is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>empty_etc_charge</t>
+          <t>company</t>
         </is>
       </c>
     </row>
@@ -558,25 +615,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>09:10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>京都駅</t>
+          <t>四条</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>五条</t>
+          <t>烏丸</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1500</v>
+        <v>2200</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>uber</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -586,7 +643,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>通常現金のお客様</t>
+          <t>Uberアプリ決済</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -597,7 +654,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -627,25 +684,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>09:10</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>四条</t>
+          <t>祇園</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>烏丸</t>
+          <t>京都駅</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>uber</t>
+          <t>didi_cash</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -655,7 +712,7 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Uberアプリ決済</t>
+          <t>Didi現金</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -666,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>customer</t>
+          <t>company</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -674,7 +731,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>driver</t>
         </is>
       </c>
     </row>
@@ -696,25 +753,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>祇園</t>
+          <t>京都駅</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>京都駅</t>
+          <t>桂川</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1800</v>
+        <v>1300</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>didi_cash</t>
+          <t>qr</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -724,7 +781,7 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Didi現金</t>
+          <t>QRコード決済(PayPay等)</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -743,7 +800,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>driver</t>
+          <t>company</t>
         </is>
       </c>
     </row>
@@ -765,7 +822,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -775,15 +832,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>桂川</t>
+          <t>二条城</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>qr</t>
+          <t>credit_card</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -793,7 +850,7 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>QRコード決済(PayPay等)</t>
+          <t>クレジットカード</t>
         </is>
       </c>
       <c r="M6" t="n">
@@ -834,7 +891,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -844,15 +901,15 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>二条城</t>
+          <t>北大路</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>credit_card</t>
+          <t>go</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -862,7 +919,7 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>クレジットカード</t>
+          <t>GOアプリ</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -903,7 +960,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -913,36 +970,42 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>北大路</t>
+          <t>大阪梅田</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>25000</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>jpy_cash</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>GOアプリ</t>
+          <t>大阪往復貸切（現金）</t>
         </is>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -972,17 +1035,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>大阪梅田</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>京都駅</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>大阪梅田</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -997,71 +1060,71 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>jpy_cash</t>
+          <t>self_wechat</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>大阪往復貸切（現金）</t>
+          <t>返程空車ETC自己負担</t>
         </is>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>customer</t>
+          <t>driver</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>driver</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>2025-12-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>D002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>6598</t>
+          <t>5002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>大阪梅田</t>
+          <t>京都駅</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>京都駅</t>
+          <t>伏見</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1069,19 +1132,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>self_wechat</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
-          <t>返程空車ETC自己負担</t>
+          <t>別ドライバー・別車両の例</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1092,15 +1149,15 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>driver</t>
+          <t>company</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>driver</t>
+          <t>company</t>
         </is>
       </c>
     </row>
@@ -1122,25 +1179,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>09:20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>伏見</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>京都駅</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>伏見</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>uber</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1150,97 +1207,47 @@
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
-          <t>別ドライバー・別車両の例</t>
+          <t>Uber未入金（待入）</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t>customer</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>company</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-12-01</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>D002</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>5002</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>09:20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>伏見</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>京都駅</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2100</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>uber</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Uber未入金（待入）</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>customer</t>
-        </is>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>company</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1603,25 +1610,6 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1633,7 +1621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1641,10 +1629,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="28" customWidth="1" min="2" max="2"/>
-    <col width="28" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1672,427 +1660,433 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>__template_version__</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>模板版本</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025.01</t>
+          <t>2025-11-30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>此行为第1行，不要修改；系统用来检测模板是否最新</t>
+          <t>YYYY-MM-DD</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>driver_code</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>司机代码</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>D001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>系统中 Driver.driver_code</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>vehicle_number</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>车号</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-11-30</t>
+          <t>6598</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>YYYY-MM-DD</t>
+          <t>车牌号末4桁，与 Car.license_plate の末尾一致</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>driver_code</t>
+          <t>ride_time</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>司机代码</t>
+          <t>乘车时间</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D001</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>系统中 Driver.driver_code</t>
+          <t>自由格式字符串</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vehicle_number</t>
+          <t>ride_from</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>车号</t>
+          <t>乘车地</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6598</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>车牌号末4桁，与 Car.license_plate 的末尾一致</t>
-        </is>
-      </c>
+          <t>京都駅</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ride_time</t>
+          <t>ride_to</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>乘车时间</t>
+          <t>降车地</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:35</t>
+          <t>大阪梅田</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>自由格式字符串</t>
+          <t>（当前导入逻辑未使用，可当作备忘）</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ride_from</t>
+          <t>meter_fee</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>乘车地</t>
+          <t>メータ料金</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>京都駅</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>1500</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>整数（円）</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ride_to</t>
+          <t>payment_method</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>降车地</t>
+          <t>支付方式</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大阪梅田</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>（当前导入逻辑未使用，可当作备忘）</t>
+          <t>下方有完整对照表</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>meter_fee</t>
+          <t>is_charter</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>メータ料金</t>
+          <t>是否貸切</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>整数（円）</t>
+          <t>0=通常, 1=貸切</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>payment_method</t>
+          <t>charter_amount</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>支付方式</t>
+          <t>貸切金額（円）</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>25000</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>下方有完整对照表</t>
+          <t>整数（円），非貸切可空</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>is_charter</t>
+          <t>charter_payment_method</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>是否貸切</t>
+          <t>貸切收款方式</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0 / 1</t>
+          <t>jpy_cash</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0=通常, 1=貸切</t>
+          <t>下方有对照表</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>charter_amount</t>
+          <t>note</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>貸切金額（円）</t>
+          <t>备注</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>25000</t>
+          <t>大阪往復貸切</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>整数（円），非貸切可空</t>
+          <t>任意文字</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>charter_payment_method</t>
+          <t>is_pending</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>貸切收款方式</t>
+          <t>待入标记</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>jpy_cash</t>
+          <t>0 / 1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>下方有对照表</t>
+          <t>1=未入金（待入），0=通常</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>riding_etc</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>备注</t>
+          <t>乗車ETC（円）</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大阪往復貸切</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>任意文字</t>
+          <t>行レベルのETC利用額（乘車）</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>is_pending</t>
+          <t>riding_etc_charge</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>待入标记</t>
+          <t>乗車ETC負担</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0 / 1</t>
+          <t>company</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1=未入金（待入），0=通常</t>
+          <t>company/driver/customer</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>riding_etc</t>
+          <t>empty_etc</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>乗車ETC（円）</t>
+          <t>空車ETC（円）</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>800</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>行レベルのETC利用額（乗車）</t>
+          <t>行レベルのETC利用額（空車）</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>riding_etc_charge</t>
+          <t>empty_etc_charge</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乗車ETC負担</t>
+          <t>空車ETC負担</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>driver</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>company/driver/customer</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>empty_etc</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>空車ETC（円）</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>800</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>行レベルのETC利用額（空車）</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>empty_etc_charge</t>
+          <t>payment_method 对照表</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>空車ETC負担</t>
+          <t>Excel值(code)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>driver</t>
+          <t>画面显示</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>company/driver/customer</t>
-        </is>
-      </c>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>現金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>payment_method 对照表</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Excel值(code)</t>
+          <t>uber_cash</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>画面显示</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>说明</t>
-        </is>
-      </c>
+          <t>Uber（現金）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cash</t>
+          <t>uber</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>現金</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2101,12 +2095,12 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>uber_cash</t>
+          <t>uber_reservation</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Uber（現金）</t>
+          <t>Uber予約</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2115,12 +2109,12 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>uber</t>
+          <t>uber_tip</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>Uberチップ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -2129,12 +2123,12 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>uber_reservation</t>
+          <t>uber_promotion</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Uber予約</t>
+          <t>Uberプロモーション</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -2143,12 +2137,12 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>uber_tip</t>
+          <t>didi_cash</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Uberチップ</t>
+          <t>Didi（現金）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -2157,12 +2151,12 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>uber_promotion</t>
+          <t>didi</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Uberプロモーション</t>
+          <t>Didi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2171,12 +2165,12 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>didi_cash</t>
+          <t>go_cash</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Didi（現金）</t>
+          <t>GO（現金）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2185,12 +2179,12 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>didi</t>
+          <t>go</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Didi</t>
+          <t>GO</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2199,12 +2193,12 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>go_cash</t>
+          <t>credit_card</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GO（現金）</t>
+          <t>クレジットカード</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2213,12 +2207,12 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>go</t>
+          <t>qr</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GO</t>
+          <t>バーコード(PayPay、auPay、wechat)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2227,12 +2221,12 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>credit_card</t>
+          <t>kyokushin</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>クレジットカード</t>
+          <t>京交信</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2241,12 +2235,12 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>qr</t>
+          <t>omron</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>バーコード(PayPay、auPay、wechat)</t>
+          <t>オムロン（愛のタクシーチケット）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2255,76 +2249,76 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>kyokushin</t>
+          <t>kyotoshi</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>京交信</t>
+          <t>京都市他</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr"/>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>omron</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>オムロン（愛のタクシーチケット）</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>charter_payment_method 对照表</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>kyotoshi</t>
+          <t>Excel值(code)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>京都市他</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>画面显示</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>jpy_cash</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>日元现金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>charter_payment_method 对照表</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Excel值(code)</t>
+          <t>rmb_cash</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>画面显示</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>说明</t>
-        </is>
-      </c>
+          <t>人民币现金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>jpy_cash</t>
+          <t>self_wechat</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>日元现金</t>
+          <t>司机微信/支付宝</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2333,12 +2327,12 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rmb_cash</t>
+          <t>to_company</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>人民币现金</t>
+          <t>转付公司</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2347,12 +2341,12 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>self_wechat</t>
+          <t>boss_wechat</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>司机微信/支付宝</t>
+          <t>老板微信</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2361,58 +2355,58 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>to_company</t>
+          <t>bank_transfer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>转付公司</t>
+          <t>银行转账</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr"/>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>boss_wechat</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>老板微信</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ETC 負担类型</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bank_transfer</t>
+          <t>Excel值(code)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>银行转账</t>
+          <t>含义</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>company</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>会社負担</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+    </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ETC 負担类型</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Excel值(code)</t>
+          <t>driver</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>含义</t>
+          <t>ドライバー立替</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2421,43 +2415,15 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>customer</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>会社負担</t>
+          <t>お客様支払</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>driver</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>ドライバー立替</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr"/>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>customer</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>お客様支払</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
